--- a/back/Zeszyt2.xlsx
+++ b/back/Zeszyt2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studia\Studia_mgr\sem 1\prototypowanie\prototype\back\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27172C48-43DC-4B31-AF2E-6890F1223F36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17500FDD-D8B4-45D0-B4F4-3CCFE5951271}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,15 +14,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{4232D0D4-6DAC-4F81-8526-83833BC80B32}" name="back" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="back" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\studia\Studia_mgr\sem 1\prototypowanie\prototype\back\back.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="196">
   <si>
     <t>version</t>
   </si>
@@ -237,12 +231,6 @@
     <t>40k</t>
   </si>
   <si>
-    <t>820p</t>
-  </si>
-  <si>
-    <t>10n</t>
-  </si>
-  <si>
     <t>400u</t>
   </si>
   <si>
@@ -619,12 +607,15 @@
   </si>
   <si>
     <t>/TRIG</t>
+  </si>
+  <si>
+    <t>700p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,12 +626,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -655,9 +652,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -852,130 +850,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E876ACF4-1583-4703-90FF-7DBE1147544F}" name="Tabela1" displayName="Tabela1" ref="A1:AO142" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:AO142" xr:uid="{8B776C8A-1CD5-4971-BD28-789E12144464}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AO142" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:AO142"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{65056A8E-3A06-443D-9CD1-1B0CD4E63FB1}" uniqueName="version" name="version">
+    <tableColumn id="1" uniqueName="version" name="version">
       <xmlColumnPr mapId="1" xpath="/export/@version" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5C0D47A5-7524-424C-9691-76C780B6ECBA}" uniqueName="source" name="source">
+    <tableColumn id="2" uniqueName="source" name="source">
       <xmlColumnPr mapId="1" xpath="/export/design/source" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E86C9A1-8602-4F98-B58A-9C843EF20DAC}" uniqueName="date" name="date">
+    <tableColumn id="3" uniqueName="date" name="date">
       <xmlColumnPr mapId="1" xpath="/export/design/date" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6134C92-B774-40D7-BBEC-0BE174E215D7}" uniqueName="tool" name="tool">
+    <tableColumn id="4" uniqueName="tool" name="tool">
       <xmlColumnPr mapId="1" xpath="/export/design/tool" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F5318D38-B645-4512-AEE9-B0085542333C}" uniqueName="number" name="number">
+    <tableColumn id="5" uniqueName="number" name="number">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/@number" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1B68CC8A-2F24-4E63-B799-5F1DD5EFAFC9}" uniqueName="name" name="name">
+    <tableColumn id="6" uniqueName="name" name="name">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6BF67F1C-9026-4862-95ED-A5F962617246}" uniqueName="tstamps" name="tstamps">
+    <tableColumn id="7" uniqueName="tstamps" name="tstamps">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/@tstamps" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{36AE2B0F-E4E3-4EE8-8941-A28B80761F92}" uniqueName="title" name="title">
+    <tableColumn id="8" uniqueName="title" name="title">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/title" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{928C306C-F9B4-4152-8780-27250F257AAC}" uniqueName="company" name="company">
+    <tableColumn id="9" uniqueName="company" name="company">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/company" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2AE03731-1F09-486A-AF60-DE5D46DCF007}" uniqueName="rev" name="rev">
+    <tableColumn id="10" uniqueName="rev" name="rev">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/rev" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{01540376-CF15-49E5-979F-4F1BA46919AC}" uniqueName="date" name="date2">
+    <tableColumn id="11" uniqueName="date" name="date2">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/date" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{DCD1B57D-246B-42CB-B692-A36CF72C16B0}" uniqueName="source" name="source3">
+    <tableColumn id="12" uniqueName="source" name="source3">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/source" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0AFA985B-476A-41BE-AFA0-C50299FEF647}" uniqueName="number" name="number4">
+    <tableColumn id="13" uniqueName="number" name="number4">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/comment/@number" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{048C1561-724A-427B-96E6-C5D8CC0A7313}" uniqueName="value" name="value">
+    <tableColumn id="14" uniqueName="value" name="value">
       <xmlColumnPr mapId="1" xpath="/export/design/sheet/title_block/comment/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B5219449-D111-4803-A761-D874C5F2D9C4}" uniqueName="ref" name="ref">
+    <tableColumn id="15" uniqueName="ref" name="ref">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/@ref" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1F458836-B852-451D-BB6E-9E301BCA3762}" uniqueName="value" name="value5">
+    <tableColumn id="16" uniqueName="value" name="value5">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{83CB9445-81C4-4B0A-84B2-50138F9F6070}" uniqueName="footprint" name="footprint">
+    <tableColumn id="17" uniqueName="footprint" name="footprint">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/footprint" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{8337673F-4FFE-465B-AC25-B3555A97FA63}" uniqueName="datasheet" name="datasheet">
+    <tableColumn id="18" uniqueName="datasheet" name="datasheet">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/datasheet" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7D188B8E-AD82-4554-8B89-A74484765F9E}" uniqueName="lib" name="lib">
+    <tableColumn id="19" uniqueName="lib" name="lib">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/libsource/@lib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{6932E2D4-C4A7-4281-9AD5-2DECCCD42579}" uniqueName="part" name="part">
+    <tableColumn id="20" uniqueName="part" name="part">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/libsource/@part" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5874A6DD-BE31-41F2-83A3-07C546517FE4}" uniqueName="description" name="description">
+    <tableColumn id="21" uniqueName="description" name="description">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/libsource/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{D01C712E-D430-4E49-AE71-95F36B5233BC}" uniqueName="names" name="names">
+    <tableColumn id="22" uniqueName="names" name="names">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/sheetpath/@names" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{0DA2595A-8A05-4C49-A441-E0539B0177D0}" uniqueName="tstamps" name="tstamps6">
+    <tableColumn id="23" uniqueName="tstamps" name="tstamps6">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/sheetpath/@tstamps" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{B191C2D9-9526-4776-93BB-16209A1F2B10}" uniqueName="tstamp" name="tstamp">
+    <tableColumn id="24" uniqueName="tstamp" name="tstamp">
       <xmlColumnPr mapId="1" xpath="/export/components/comp/tstamp" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{87E983A6-668D-40C8-9543-88348C86722B}" uniqueName="lib" name="lib7">
+    <tableColumn id="25" uniqueName="lib" name="lib7">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@lib" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{D9F3CBED-184B-446B-B6A0-80854A1F7E2D}" uniqueName="part" name="part8">
+    <tableColumn id="26" uniqueName="part" name="part8">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/@part" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{5FA7FD60-2A58-42D0-BF98-28137E12B2C0}" uniqueName="description" name="description9">
+    <tableColumn id="27" uniqueName="description" name="description9">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{023C37DC-188A-45D1-90AB-F727D9122B91}" uniqueName="docs" name="docs">
+    <tableColumn id="28" uniqueName="docs" name="docs">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/docs" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{A755A637-4189-4445-A4C5-F60196918413}" uniqueName="fp" name="fp">
+    <tableColumn id="29" uniqueName="fp" name="fp">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/footprints/fp" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{4A495CB9-9F4C-4EF6-84BD-AC43A88A3794}" uniqueName="field" name="field">
+    <tableColumn id="30" uniqueName="field" name="field">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/fields/field" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{99CC37E5-1471-438E-920C-24C47050CB9F}" uniqueName="name" name="name10">
+    <tableColumn id="31" uniqueName="name" name="name10">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/fields/field/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A9DA98FE-CC58-4087-9C71-994FFDCEEA02}" uniqueName="num" name="num">
+    <tableColumn id="32" uniqueName="num" name="num">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/pins/pin/@num" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{EC5B3A42-0A3F-4BA5-B5FB-B527641C480D}" uniqueName="name" name="name11">
+    <tableColumn id="33" uniqueName="name" name="name11">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/pins/pin/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{BBAC178F-BE0B-4B54-BD52-2EE3639F78A9}" uniqueName="type" name="type">
+    <tableColumn id="34" uniqueName="type" name="type">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/pins/pin/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{26BB9AC0-E884-4DC1-96A3-041582B05585}" uniqueName="alias" name="alias">
+    <tableColumn id="35" uniqueName="alias" name="alias">
       <xmlColumnPr mapId="1" xpath="/export/libparts/libpart/aliases/alias" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7FED9F8D-3A74-4679-A430-AAA73CD7D1E3}" uniqueName="logical" name="logical">
+    <tableColumn id="36" uniqueName="logical" name="logical">
       <xmlColumnPr mapId="1" xpath="/export/libraries/library/@logical" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{1CFA0D5C-1AA6-49AA-BFA9-CE1EAFF05D34}" uniqueName="uri" name="uri">
+    <tableColumn id="37" uniqueName="uri" name="uri">
       <xmlColumnPr mapId="1" xpath="/export/libraries/library/uri" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{BF73DDE5-6931-4C44-8CCF-31E7F7085E1C}" uniqueName="code" name="code">
+    <tableColumn id="38" uniqueName="code" name="code">
       <xmlColumnPr mapId="1" xpath="/export/nets/net/@code" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{28FF2A1A-61C4-4D31-A8A2-E6AF7F4A8A7F}" uniqueName="name" name="name12">
+    <tableColumn id="39" uniqueName="name" name="name12">
       <xmlColumnPr mapId="1" xpath="/export/nets/net/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{3D4B2B06-E804-43AE-84BD-82B523E3151C}" uniqueName="ref" name="ref13">
+    <tableColumn id="40" uniqueName="ref" name="ref13">
       <xmlColumnPr mapId="1" xpath="/export/nets/net/node/@ref" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{61BA9DCE-AA2A-4047-9F42-AA5A088119F4}" uniqueName="pin" name="pin">
+    <tableColumn id="41" uniqueName="pin" name="pin">
       <xmlColumnPr mapId="1" xpath="/export/nets/net/node/@pin" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1272,18 +1270,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,23 +1704,23 @@
       <c r="O6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>45</v>
@@ -1731,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1766,23 +1764,23 @@
       <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>45</v>
@@ -1791,7 +1789,7 @@
         <v>45</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1826,23 +1824,23 @@
       <c r="O8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>45</v>
@@ -1851,7 +1849,7 @@
         <v>45</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1886,23 +1884,23 @@
       <c r="O9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>45</v>
@@ -1911,7 +1909,7 @@
         <v>45</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1950,19 +1948,19 @@
         <v>68</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>45</v>
@@ -1971,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2006,23 +2004,23 @@
       <c r="O11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>69</v>
+      <c r="P11" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>45</v>
@@ -2031,7 +2029,7 @@
         <v>45</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -2066,23 +2064,23 @@
       <c r="O12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>70</v>
+      <c r="P12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>45</v>
@@ -2091,7 +2089,7 @@
         <v>45</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -2126,23 +2124,23 @@
       <c r="O13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>71</v>
+      <c r="P13" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>45</v>
@@ -2151,7 +2149,7 @@
         <v>45</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -2187,22 +2185,22 @@
         <v>55</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>45</v>
@@ -2211,7 +2209,7 @@
         <v>45</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -2246,23 +2244,23 @@
       <c r="O15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>73</v>
+      <c r="P15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>45</v>
@@ -2271,7 +2269,7 @@
         <v>45</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -2306,23 +2304,23 @@
       <c r="O16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>73</v>
+      <c r="P16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>45</v>
@@ -2331,7 +2329,7 @@
         <v>45</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -2367,22 +2365,22 @@
         <v>58</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>45</v>
@@ -2391,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -2430,19 +2428,19 @@
         <v>41</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>45</v>
@@ -2451,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2490,19 +2488,19 @@
         <v>41</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>45</v>
@@ -2511,7 +2509,7 @@
         <v>45</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2546,23 +2544,23 @@
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>75</v>
+      <c r="P20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>45</v>
@@ -2571,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2606,23 +2604,23 @@
       <c r="O21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>73</v>
+      <c r="P21" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>45</v>
@@ -2631,7 +2629,7 @@
         <v>45</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2667,22 +2665,22 @@
         <v>63</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="S22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>45</v>
@@ -2691,7 +2689,7 @@
         <v>45</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -2734,19 +2732,19 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -2784,23 +2782,23 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -2836,23 +2834,23 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -2888,16 +2886,16 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -2906,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -2943,16 +2941,16 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -2961,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -2998,19 +2996,19 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -3048,23 +3046,23 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -3100,23 +3098,23 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -3152,16 +3150,16 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -3170,10 +3168,10 @@
         <v>1</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -3207,16 +3205,16 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -3225,10 +3223,10 @@
         <v>2</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -3262,19 +3260,19 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -3312,19 +3310,19 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -3362,19 +3360,19 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -3412,19 +3410,19 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -3462,23 +3460,23 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -3514,23 +3512,23 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -3566,16 +3564,16 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -3584,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -3621,16 +3619,16 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -3639,10 +3637,10 @@
         <v>2</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -3676,23 +3674,23 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -3728,23 +3726,23 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -3780,16 +3778,16 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
@@ -3798,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -3835,16 +3833,16 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
@@ -3853,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -3890,16 +3888,16 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
@@ -3908,10 +3906,10 @@
         <v>3</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -3945,19 +3943,19 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -3995,19 +3993,19 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4045,19 +4043,19 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -4095,19 +4093,19 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -4145,23 +4143,23 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -4197,23 +4195,23 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -4249,16 +4247,16 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
@@ -4267,10 +4265,10 @@
         <v>1</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
@@ -4304,16 +4302,16 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
@@ -4322,10 +4320,10 @@
         <v>2</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -4359,19 +4357,19 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -4409,23 +4407,23 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -4461,23 +4459,23 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -4513,16 +4511,16 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
@@ -4531,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -4568,16 +4566,16 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
@@ -4586,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -4623,19 +4621,19 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AC59" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -4673,19 +4671,19 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB60" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AC60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -4723,19 +4721,19 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB61" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="AC61" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
@@ -4773,23 +4771,23 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE62" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="AE62" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -4825,23 +4823,23 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -4877,16 +4875,16 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
@@ -4895,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="AG64" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AH64" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
@@ -4932,16 +4930,16 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
@@ -4950,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
@@ -4987,16 +4985,16 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
@@ -5005,10 +5003,10 @@
         <v>3</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
@@ -5042,16 +5040,16 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
@@ -5060,10 +5058,10 @@
         <v>4</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
@@ -5097,16 +5095,16 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA68" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AB68" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB68" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
@@ -5115,10 +5113,10 @@
         <v>5</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
@@ -5152,16 +5150,16 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AB69" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
@@ -5170,10 +5168,10 @@
         <v>6</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
@@ -5207,16 +5205,16 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AB70" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
@@ -5225,10 +5223,10 @@
         <v>7</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
@@ -5262,16 +5260,16 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA71" s="1" t="s">
+      <c r="AB71" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB71" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
@@ -5280,10 +5278,10 @@
         <v>8</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
@@ -5317,16 +5315,16 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AB72" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
@@ -5334,7 +5332,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
@@ -5367,16 +5365,16 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AB73" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB73" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
@@ -5384,7 +5382,7 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
@@ -5417,16 +5415,16 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA74" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA74" s="1" t="s">
+      <c r="AB74" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
@@ -5434,7 +5432,7 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
@@ -5467,16 +5465,16 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA75" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AB75" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
@@ -5484,7 +5482,7 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
@@ -5517,16 +5515,16 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AB76" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB76" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
@@ -5534,7 +5532,7 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
@@ -5567,16 +5565,16 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AB77" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
@@ -5584,7 +5582,7 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
@@ -5617,16 +5615,16 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA78" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA78" s="1" t="s">
+      <c r="AB78" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
@@ -5634,7 +5632,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
@@ -5667,16 +5665,16 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA79" s="1" t="s">
+      <c r="AB79" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB79" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
@@ -5684,7 +5682,7 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
@@ -5717,16 +5715,16 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA80" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA80" s="1" t="s">
+      <c r="AB80" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB80" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
@@ -5734,7 +5732,7 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
@@ -5767,16 +5765,16 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA81" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AB81" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
@@ -5817,16 +5815,16 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA82" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AB82" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB82" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
@@ -5834,7 +5832,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
@@ -5867,16 +5865,16 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA83" s="1" t="s">
+      <c r="AB83" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AB83" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
@@ -5884,7 +5882,7 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
@@ -5917,19 +5915,19 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA84" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AB84" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AC84" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
@@ -5967,23 +5965,23 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA85" s="1" t="s">
+      <c r="AB85" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB85" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -6019,23 +6017,23 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA86" s="1" t="s">
+      <c r="AB86" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB86" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -6071,23 +6069,23 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA87" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA87" s="1" t="s">
+      <c r="AB87" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB87" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -6123,16 +6121,16 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA88" s="1" t="s">
+      <c r="AB88" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
@@ -6141,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AH88" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
@@ -6178,16 +6176,16 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA89" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AB89" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB89" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
@@ -6199,7 +6197,7 @@
         <v>41</v>
       </c>
       <c r="AH89" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
@@ -6233,16 +6231,16 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA90" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AB90" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
@@ -6251,10 +6249,10 @@
         <v>3</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
@@ -6288,16 +6286,16 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA91" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA91" s="1" t="s">
+      <c r="AB91" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
@@ -6305,7 +6303,7 @@
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
@@ -6338,16 +6336,16 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA92" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA92" s="1" t="s">
+      <c r="AB92" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
@@ -6355,7 +6353,7 @@
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
@@ -6388,16 +6386,16 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA93" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA93" s="1" t="s">
+      <c r="AB93" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB93" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
@@ -6405,7 +6403,7 @@
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
@@ -6438,16 +6436,16 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA94" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AB94" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB94" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
@@ -6455,7 +6453,7 @@
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
@@ -6488,16 +6486,16 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA95" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA95" s="1" t="s">
+      <c r="AB95" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB95" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
@@ -6505,7 +6503,7 @@
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
@@ -6538,16 +6536,16 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA96" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA96" s="1" t="s">
+      <c r="AB96" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AB96" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
@@ -6555,7 +6553,7 @@
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
@@ -6598,10 +6596,10 @@
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
@@ -6642,10 +6640,10 @@
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM98" s="1"/>
       <c r="AN98" s="1"/>
@@ -6686,10 +6684,10 @@
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM99" s="1"/>
       <c r="AN99" s="1"/>
@@ -6730,10 +6728,10 @@
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM100" s="1"/>
       <c r="AN100" s="1"/>
@@ -6779,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN101" s="1" t="s">
         <v>51</v>
@@ -6829,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="AM102" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AN102" s="1" t="s">
         <v>60</v>
@@ -6879,7 +6877,7 @@
         <v>2</v>
       </c>
       <c r="AM103" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AN103" s="1" t="s">
         <v>50</v>
@@ -6929,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="AM104" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AN104" s="1" t="s">
         <v>59</v>
@@ -6979,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="AM105" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN105" s="1" t="s">
         <v>60</v>
@@ -7029,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="AM106" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN106" s="1" t="s">
         <v>61</v>
@@ -7079,7 +7077,7 @@
         <v>3</v>
       </c>
       <c r="AM107" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN107" s="1" t="s">
         <v>49</v>
@@ -7129,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AN108" s="1" t="s">
         <v>59</v>
@@ -7179,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="AM109" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN109" s="1" t="s">
         <v>48</v>
@@ -7229,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="AM110" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN110" s="1" t="s">
         <v>47</v>
@@ -7279,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="AM111" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN111" s="1" t="s">
         <v>63</v>
@@ -7329,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="AM112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN112" s="1" t="s">
         <v>52</v>
@@ -7379,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="AM113" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN113" s="1" t="s">
         <v>63</v>
@@ -7429,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="AM114" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN114" s="1" t="s">
         <v>56</v>
@@ -7479,7 +7477,7 @@
         <v>4</v>
       </c>
       <c r="AM115" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN115" s="1" t="s">
         <v>53</v>
@@ -7529,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="AM116" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN116" s="1" t="s">
         <v>57</v>
@@ -7579,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="AM117" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AN117" s="1" t="s">
         <v>62</v>
@@ -7629,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="AM118" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AN118" s="1" t="s">
         <v>58</v>
@@ -7679,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="AM119" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AN119" s="1" t="s">
         <v>57</v>
@@ -7729,7 +7727,7 @@
         <v>6</v>
       </c>
       <c r="AM120" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN120" s="1" t="s">
         <v>54</v>
@@ -7779,7 +7777,7 @@
         <v>6</v>
       </c>
       <c r="AM121" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN121" s="1" t="s">
         <v>49</v>
@@ -7829,7 +7827,7 @@
         <v>6</v>
       </c>
       <c r="AM122" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN122" s="1" t="s">
         <v>63</v>
@@ -7879,7 +7877,7 @@
         <v>6</v>
       </c>
       <c r="AM123" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AN123" s="1" t="s">
         <v>58</v>
@@ -7929,7 +7927,7 @@
         <v>7</v>
       </c>
       <c r="AM124" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN124" s="1" t="s">
         <v>49</v>
@@ -7979,7 +7977,7 @@
         <v>7</v>
       </c>
       <c r="AM125" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN125" s="1" t="s">
         <v>53</v>
@@ -8029,7 +8027,7 @@
         <v>8</v>
       </c>
       <c r="AM126" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN126" s="1" t="s">
         <v>62</v>
@@ -8079,7 +8077,7 @@
         <v>8</v>
       </c>
       <c r="AM127" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN127" s="1" t="s">
         <v>49</v>
@@ -8129,7 +8127,7 @@
         <v>8</v>
       </c>
       <c r="AM128" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN128" s="1" t="s">
         <v>49</v>
@@ -8179,7 +8177,7 @@
         <v>8</v>
       </c>
       <c r="AM129" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN129" s="1" t="s">
         <v>61</v>
@@ -8229,7 +8227,7 @@
         <v>9</v>
       </c>
       <c r="AM130" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AN130" s="1" t="s">
         <v>49</v>
@@ -8279,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="AM131" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AN131" s="1" t="s">
         <v>55</v>
@@ -8329,7 +8327,7 @@
         <v>10</v>
       </c>
       <c r="AM132" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN132" s="1" t="s">
         <v>55</v>
@@ -8379,7 +8377,7 @@
         <v>10</v>
       </c>
       <c r="AM133" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AN133" s="1" t="s">
         <v>58</v>
@@ -8429,7 +8427,7 @@
         <v>11</v>
       </c>
       <c r="AM134" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN134" s="1" t="s">
         <v>48</v>
@@ -8479,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="AM135" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN135" s="1" t="s">
         <v>56</v>
@@ -8529,7 +8527,7 @@
         <v>11</v>
       </c>
       <c r="AM136" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN136" s="1" t="s">
         <v>54</v>
@@ -8579,7 +8577,7 @@
         <v>11</v>
       </c>
       <c r="AM137" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN137" s="1" t="s">
         <v>47</v>
@@ -8629,7 +8627,7 @@
         <v>12</v>
       </c>
       <c r="AM138" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN138" s="1" t="s">
         <v>51</v>
@@ -8679,7 +8677,7 @@
         <v>12</v>
       </c>
       <c r="AM139" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN139" s="1" t="s">
         <v>52</v>
@@ -8729,7 +8727,7 @@
         <v>12</v>
       </c>
       <c r="AM140" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN140" s="1" t="s">
         <v>50</v>
@@ -8779,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="AM141" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN141" s="1" t="s">
         <v>49</v>
@@ -8829,7 +8827,7 @@
         <v>12</v>
       </c>
       <c r="AM142" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AN142" s="1" t="s">
         <v>49</v>
